--- a/Assets/CFD_processings/analytic_results_unity.xlsx
+++ b/Assets/CFD_processings/analytic_results_unity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>rpm</t>
   </si>
@@ -82,6 +82,45 @@
   </si>
   <si>
     <t>id-sim</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
   </si>
 </sst>
 </file>
@@ -416,7 +455,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,8 +511,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -510,8 +549,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -548,8 +587,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -586,8 +625,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -624,8 +663,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -662,8 +701,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -700,8 +739,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -738,8 +777,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -776,8 +815,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -814,8 +853,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -852,8 +891,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -890,8 +929,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -928,8 +967,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
